--- a/process REAS/process BC.xlsx
+++ b/process REAS/process BC.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13905" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CO" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>COL</t>
   </si>
@@ -110,6 +111,105 @@
   <si>
     <t>BJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANHU</t>
+  </si>
+  <si>
+    <t>BEIJ</t>
+  </si>
+  <si>
+    <t>CHON</t>
+  </si>
+  <si>
+    <t>FUJI</t>
+  </si>
+  <si>
+    <t>GUAD</t>
+  </si>
+  <si>
+    <t>GANS</t>
+  </si>
+  <si>
+    <t>GUAX</t>
+  </si>
+  <si>
+    <t>GUIZ</t>
+  </si>
+  <si>
+    <t>HENA</t>
+  </si>
+  <si>
+    <t>HUBE</t>
+  </si>
+  <si>
+    <t>HEBE</t>
+  </si>
+  <si>
+    <t>HAIN</t>
+  </si>
+  <si>
+    <t>HONG</t>
+  </si>
+  <si>
+    <t>HEIL</t>
+  </si>
+  <si>
+    <t>HUNA</t>
+  </si>
+  <si>
+    <t>JILI</t>
+  </si>
+  <si>
+    <t>JINU</t>
+  </si>
+  <si>
+    <t>JINX</t>
+  </si>
+  <si>
+    <t>LIAO</t>
+  </si>
+  <si>
+    <t>MACA</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>NINX</t>
+  </si>
+  <si>
+    <t>QING</t>
+  </si>
+  <si>
+    <t>SICH</t>
+  </si>
+  <si>
+    <t>SHND</t>
+  </si>
+  <si>
+    <t>SHAN</t>
+  </si>
+  <si>
+    <t>SHAA</t>
+  </si>
+  <si>
+    <t>SHNX</t>
+  </si>
+  <si>
+    <t>TIAN</t>
+  </si>
+  <si>
+    <t>XING</t>
+  </si>
+  <si>
+    <t>TIBE</t>
+  </si>
+  <si>
+    <t>YUNN</t>
+  </si>
+  <si>
+    <t>ZHEJ</t>
   </si>
 </sst>
 </file>
@@ -638,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1713,4 +1813,1670 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1437859.5</v>
+      </c>
+      <c r="I2">
+        <v>130.0076</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>769486.44</v>
+      </c>
+      <c r="I3">
+        <v>371.99520000000001</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>317324.19300000003</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>477212.98300000001</v>
+      </c>
+      <c r="I5">
+        <v>10.175039999999999</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>848325.63</v>
+      </c>
+      <c r="I6">
+        <v>86.150350000000003</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>584941.80000000005</v>
+      </c>
+      <c r="I7">
+        <v>18.173120000000001</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>639888.81999999995</v>
+      </c>
+      <c r="I8">
+        <v>39.014330000000001</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>391907.74</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1823582.12</v>
+      </c>
+      <c r="I10">
+        <v>519.38229999999999</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1628375.57</v>
+      </c>
+      <c r="I11">
+        <v>84.109020000000001</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>8874717.3100000005</v>
+      </c>
+      <c r="I12">
+        <v>78.118979999999993</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>6417.3220000000001</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>38.900379999999998</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>331064.65999999997</v>
+      </c>
+      <c r="I15">
+        <v>555.19299999999998</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1163950.26</v>
+      </c>
+      <c r="I16">
+        <v>667.73620000000005</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>513071.16</v>
+      </c>
+      <c r="I17">
+        <v>314.00920000000002</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>3828273.75</v>
+      </c>
+      <c r="I18">
+        <v>23.200949999999999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1063183.98</v>
+      </c>
+      <c r="I19">
+        <v>351.57569999999998</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3721621.06</v>
+      </c>
+      <c r="I20">
+        <v>2031.6510000000001</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1026661.29</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>16685.5468</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>79135.83</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1337031.0900000001</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>3685664.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1975062.92</v>
+      </c>
+      <c r="I27">
+        <v>282.85750000000002</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>481874.14</v>
+      </c>
+      <c r="I28">
+        <v>88.67192</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2529216.7000000002</v>
+      </c>
+      <c r="I29">
+        <v>3410.9050000000002</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>41.16</v>
+      </c>
+      <c r="H30">
+        <v>1137102</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>369720.64</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>917084.82</v>
+      </c>
+      <c r="I33">
+        <v>589.17349999999999</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>388679.93699999998</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>